--- a/src/assets/data/2_Gestion de la Calidad/Formatos/GC-FOR-007 Lista de chequeo UM.xlsx
+++ b/src/assets/data/2_Gestion de la Calidad/Formatos/GC-FOR-007 Lista de chequeo UM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="SGC-FOR-07" sheetId="1" r:id="rId3"/>
@@ -32,14 +32,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh2G9cG2jdJFPJnlZCwuTeGIuhsYA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgkEiP8LQ8LZsC77j9t0y0LXwC+Xw=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>GESTIÓN DE LA CALIDAD</t>
   </si>
@@ -177,71 +177,209 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="55">
     <border/>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
+      <right/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <bottom/>
     </border>
     <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -249,113 +387,67 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <bottom/>
-    </border>
-    <border>
-      <bottom/>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -386,163 +478,6 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -565,6 +500,12 @@
       <bottom/>
     </border>
     <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -631,13 +572,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <bottom/>
     </border>
     <border>
@@ -741,11 +675,21 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -757,161 +701,153 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="2" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="30" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="31" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="33" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="34" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="37" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="29" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="30" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="38" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="39" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="31" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="41" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="42" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="43" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="44" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="45" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="46" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="46" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="48" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="48" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="49" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="47" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="48" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="34" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="50" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="39" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="51" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="51" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="40" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="52" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="41" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="43" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="53" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="22" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="44" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="45" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="47" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="48" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="49" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="51" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="52" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="53" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="53" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="54" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="55" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="55" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="56" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="54" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="55" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="57" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="58" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="58" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="59" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="60" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,7 +859,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1179,7 +1115,7 @@
     <xdr:ext cx="1152525" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1207,7 +1143,7 @@
     <xdr:ext cx="819150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1229,7 +1165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1267,533 +1203,531 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="17">
         <v>43560.0</v>
       </c>
     </row>
     <row r="4" ht="30.0" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" ht="30.0" customHeight="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" ht="30.0" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" ht="30.0" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" ht="30.0" customHeight="1">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" ht="30.0" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" ht="30.0" customHeight="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" ht="30.0" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="55"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="51"/>
     </row>
     <row r="16" ht="30.0" customHeight="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="55"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="51"/>
     </row>
     <row r="17" ht="30.0" customHeight="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="55"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="51"/>
     </row>
     <row r="18" ht="30.0" customHeight="1">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="55"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="51"/>
     </row>
     <row r="19" ht="30.0" customHeight="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="55"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="51"/>
     </row>
     <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="55"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="51"/>
     </row>
     <row r="21" ht="30.0" customHeight="1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="56" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="57" t="s">
+      <c r="E21" s="43"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="55"/>
+      <c r="H21" s="51"/>
     </row>
     <row r="22" ht="30.0" customHeight="1">
-      <c r="A22" s="50"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="55"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="51"/>
     </row>
     <row r="23" ht="30.0" customHeight="1">
-      <c r="A23" s="50"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
     </row>
     <row r="24" ht="30.0" customHeight="1">
-      <c r="A24" s="50"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" ht="30.0" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="67"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" ht="30.0" customHeight="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="67"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
     </row>
     <row r="27" ht="30.0" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
     </row>
     <row r="28" ht="30.0" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="67"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
     </row>
     <row r="29" ht="30.0" customHeight="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="67"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
     </row>
     <row r="30" ht="30.0" customHeight="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="67"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="63"/>
     </row>
     <row r="31" ht="30.0" customHeight="1">
-      <c r="A31" s="73"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="75"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="71"/>
     </row>
     <row r="32" ht="30.0" hidden="1" customHeight="1">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
     </row>
     <row r="33" ht="30.0" hidden="1" customHeight="1">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" ht="30.0" hidden="1" customHeight="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" ht="30.0" hidden="1" customHeight="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
     </row>
     <row r="36" ht="30.0" hidden="1" customHeight="1">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" ht="30.0" hidden="1" customHeight="1">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" ht="30.0" hidden="1" customHeight="1">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" ht="30.0" hidden="1" customHeight="1">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
     </row>
     <row r="40" ht="30.0" hidden="1" customHeight="1">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
     </row>
     <row r="41" ht="30.0" hidden="1" customHeight="1">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" ht="30.0" hidden="1" customHeight="1">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
     </row>
     <row r="43" ht="30.0" hidden="1" customHeight="1">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
     </row>
     <row r="44" ht="30.0" hidden="1" customHeight="1">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" ht="30.0" hidden="1" customHeight="1">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" ht="30.0" hidden="1" customHeight="1">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" ht="30.0" hidden="1" customHeight="1">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" ht="30.0" hidden="1" customHeight="1">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" ht="30.0" hidden="1" customHeight="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="18">
